--- a/natmiOut/OldD0/LR-pairs_lrc2p/Il1rapl1-Ptprf.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Il1rapl1-Ptprf.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.349489141648052</v>
+        <v>0.3962093333333334</v>
       </c>
       <c r="H2">
-        <v>0.349489141648052</v>
+        <v>1.188628</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.131131633211892</v>
+        <v>0.2520896666666667</v>
       </c>
       <c r="N2">
-        <v>0.131131633211892</v>
+        <v>0.7562690000000001</v>
       </c>
       <c r="O2">
-        <v>0.01902636310565607</v>
+        <v>0.03491140780587004</v>
       </c>
       <c r="P2">
-        <v>0.01902636310565607</v>
+        <v>0.03491140780587004</v>
       </c>
       <c r="Q2">
-        <v>0.04582908193413132</v>
+        <v>0.09988027877022225</v>
       </c>
       <c r="R2">
-        <v>0.04582908193413132</v>
+        <v>0.8989225089320001</v>
       </c>
       <c r="S2">
-        <v>0.01902636310565607</v>
+        <v>0.03491140780587004</v>
       </c>
       <c r="T2">
-        <v>0.01902636310565607</v>
+        <v>0.03491140780587004</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.349489141648052</v>
+        <v>0.3962093333333334</v>
       </c>
       <c r="H3">
-        <v>0.349489141648052</v>
+        <v>1.188628</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.2091081533331</v>
+        <v>1.312792666666667</v>
       </c>
       <c r="N3">
-        <v>1.2091081533331</v>
+        <v>3.938378</v>
       </c>
       <c r="O3">
-        <v>0.1754338766005591</v>
+        <v>0.1818061039810792</v>
       </c>
       <c r="P3">
-        <v>0.1754338766005591</v>
+        <v>0.1818061039810792</v>
       </c>
       <c r="Q3">
-        <v>0.4225701706680464</v>
+        <v>0.5201407072648889</v>
       </c>
       <c r="R3">
-        <v>0.4225701706680464</v>
+        <v>4.681266365384</v>
       </c>
       <c r="S3">
-        <v>0.1754338766005591</v>
+        <v>0.1818061039810792</v>
       </c>
       <c r="T3">
-        <v>0.1754338766005591</v>
+        <v>0.1818061039810792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.349489141648052</v>
+        <v>0.3962093333333334</v>
       </c>
       <c r="H4">
-        <v>0.349489141648052</v>
+        <v>1.188628</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.55186210826799</v>
+        <v>5.655957</v>
       </c>
       <c r="N4">
-        <v>5.55186210826799</v>
+        <v>16.967871</v>
       </c>
       <c r="O4">
-        <v>0.8055397602937848</v>
+        <v>0.7832824882130508</v>
       </c>
       <c r="P4">
-        <v>0.8055397602937848</v>
+        <v>0.7832824882130508</v>
       </c>
       <c r="Q4">
-        <v>1.940315522766924</v>
+        <v>2.240942952332</v>
       </c>
       <c r="R4">
-        <v>1.940315522766924</v>
+        <v>20.168486570988</v>
       </c>
       <c r="S4">
-        <v>0.8055397602937848</v>
+        <v>0.7832824882130508</v>
       </c>
       <c r="T4">
-        <v>0.8055397602937848</v>
+        <v>0.7832824882130508</v>
       </c>
     </row>
   </sheetData>
